--- a/data_pulling/team_game_logs_1819/team_game_log_NYK.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_NYK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="121">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -271,6 +271,9 @@
     <t>WAS</t>
   </si>
   <si>
+    <t>CHA</t>
+  </si>
+  <si>
     <t>MIA</t>
   </si>
   <si>
@@ -368,6 +371,12 @@
   </si>
   <si>
     <t>2018-12-07T01:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-09T00:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-10T00:30:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -725,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV27"/>
+  <dimension ref="A1:BV29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,7 +975,7 @@
         <v>47576</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1190,7 +1199,7 @@
         <v>47587</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1414,7 +1423,7 @@
         <v>47597</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1638,7 +1647,7 @@
         <v>47611</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1856,13 +1865,13 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>47623</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2086,7 +2095,7 @@
         <v>47637</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2310,7 +2319,7 @@
         <v>47659</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2534,7 +2543,7 @@
         <v>47674</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -2752,13 +2761,13 @@
         <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>47690</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -2982,7 +2991,7 @@
         <v>47704</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3206,7 +3215,7 @@
         <v>47712</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -3430,7 +3439,7 @@
         <v>47724</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F13">
         <v>7</v>
@@ -3648,13 +3657,13 @@
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>47743</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -3878,7 +3887,7 @@
         <v>47755</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -4096,13 +4105,13 @@
         <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16">
         <v>47778</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -4326,7 +4335,7 @@
         <v>47791</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -4550,7 +4559,7 @@
         <v>47805</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -4774,7 +4783,7 @@
         <v>47820</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -4998,7 +5007,7 @@
         <v>47824</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20">
         <v>11</v>
@@ -5222,7 +5231,7 @@
         <v>47838</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -5440,13 +5449,13 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22">
         <v>47860</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -5664,13 +5673,13 @@
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23">
         <v>47870</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -5888,13 +5897,13 @@
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>47876</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -6118,7 +6127,7 @@
         <v>47899</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -6342,7 +6351,7 @@
         <v>47915</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -6566,7 +6575,7 @@
         <v>47934</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -6773,6 +6782,454 @@
         <v>74</v>
       </c>
       <c r="BV27">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>47951</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>112</v>
+      </c>
+      <c r="K28">
+        <v>112</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>8</v>
+      </c>
+      <c r="N28">
+        <v>12</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+      <c r="P28">
+        <v>57</v>
+      </c>
+      <c r="Q28">
+        <v>57</v>
+      </c>
+      <c r="R28">
+        <v>31</v>
+      </c>
+      <c r="S28">
+        <v>31</v>
+      </c>
+      <c r="T28">
+        <v>54.4</v>
+      </c>
+      <c r="U28">
+        <v>26</v>
+      </c>
+      <c r="V28">
+        <v>26</v>
+      </c>
+      <c r="W28">
+        <v>8</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>30.8</v>
+      </c>
+      <c r="Z28">
+        <v>83</v>
+      </c>
+      <c r="AA28">
+        <v>83</v>
+      </c>
+      <c r="AB28">
+        <v>39</v>
+      </c>
+      <c r="AC28">
+        <v>39</v>
+      </c>
+      <c r="AD28">
+        <v>47</v>
+      </c>
+      <c r="AE28">
+        <v>30</v>
+      </c>
+      <c r="AF28">
+        <v>30</v>
+      </c>
+      <c r="AG28">
+        <v>18</v>
+      </c>
+      <c r="AH28">
+        <v>18</v>
+      </c>
+      <c r="AI28">
+        <v>60</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>18</v>
+      </c>
+      <c r="AT28">
+        <v>25</v>
+      </c>
+      <c r="AU28">
+        <v>25</v>
+      </c>
+      <c r="AV28">
+        <v>18</v>
+      </c>
+      <c r="AW28">
+        <v>18</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>1</v>
+      </c>
+      <c r="BA28">
+        <v>19</v>
+      </c>
+      <c r="BB28">
+        <v>25</v>
+      </c>
+      <c r="BC28">
+        <v>25</v>
+      </c>
+      <c r="BD28">
+        <v>19</v>
+      </c>
+      <c r="BE28">
+        <v>-8</v>
+      </c>
+      <c r="BF28">
+        <v>-8</v>
+      </c>
+      <c r="BG28">
+        <v>22</v>
+      </c>
+      <c r="BH28">
+        <v>22</v>
+      </c>
+      <c r="BI28">
+        <v>104</v>
+      </c>
+      <c r="BJ28">
+        <v>104</v>
+      </c>
+      <c r="BK28">
+        <v>31</v>
+      </c>
+      <c r="BL28">
+        <v>31</v>
+      </c>
+      <c r="BM28">
+        <v>9</v>
+      </c>
+      <c r="BN28">
+        <v>9</v>
+      </c>
+      <c r="BO28">
+        <v>40</v>
+      </c>
+      <c r="BP28">
+        <v>40</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>1</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:74">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>47959</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>119</v>
+      </c>
+      <c r="K29">
+        <v>119</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>17</v>
+      </c>
+      <c r="O29">
+        <v>17</v>
+      </c>
+      <c r="P29">
+        <v>67</v>
+      </c>
+      <c r="Q29">
+        <v>67</v>
+      </c>
+      <c r="R29">
+        <v>31</v>
+      </c>
+      <c r="S29">
+        <v>31</v>
+      </c>
+      <c r="T29">
+        <v>46.3</v>
+      </c>
+      <c r="U29">
+        <v>26</v>
+      </c>
+      <c r="V29">
+        <v>26</v>
+      </c>
+      <c r="W29">
+        <v>13</v>
+      </c>
+      <c r="X29">
+        <v>13</v>
+      </c>
+      <c r="Y29">
+        <v>50</v>
+      </c>
+      <c r="Z29">
+        <v>93</v>
+      </c>
+      <c r="AA29">
+        <v>93</v>
+      </c>
+      <c r="AB29">
+        <v>44</v>
+      </c>
+      <c r="AC29">
+        <v>44</v>
+      </c>
+      <c r="AD29">
+        <v>47.3</v>
+      </c>
+      <c r="AE29">
+        <v>7</v>
+      </c>
+      <c r="AF29">
+        <v>7</v>
+      </c>
+      <c r="AG29">
+        <v>6</v>
+      </c>
+      <c r="AH29">
+        <v>6</v>
+      </c>
+      <c r="AI29">
+        <v>85.7</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>25</v>
+      </c>
+      <c r="AT29">
+        <v>17</v>
+      </c>
+      <c r="AU29">
+        <v>17</v>
+      </c>
+      <c r="AV29">
+        <v>25</v>
+      </c>
+      <c r="AW29">
+        <v>25</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>2</v>
+      </c>
+      <c r="BA29">
+        <v>27</v>
+      </c>
+      <c r="BB29">
+        <v>17</v>
+      </c>
+      <c r="BC29">
+        <v>17</v>
+      </c>
+      <c r="BD29">
+        <v>27</v>
+      </c>
+      <c r="BE29">
+        <v>-12</v>
+      </c>
+      <c r="BF29">
+        <v>-12</v>
+      </c>
+      <c r="BG29">
+        <v>28</v>
+      </c>
+      <c r="BH29">
+        <v>28</v>
+      </c>
+      <c r="BI29">
+        <v>107</v>
+      </c>
+      <c r="BJ29">
+        <v>107</v>
+      </c>
+      <c r="BK29">
+        <v>33</v>
+      </c>
+      <c r="BL29">
+        <v>33</v>
+      </c>
+      <c r="BM29">
+        <v>8</v>
+      </c>
+      <c r="BN29">
+        <v>8</v>
+      </c>
+      <c r="BO29">
+        <v>41</v>
+      </c>
+      <c r="BP29">
+        <v>41</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>1</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV29">
         <v>83</v>
       </c>
     </row>
